--- a/data/BppTrend/Valid_Import_Files/CAA Valuation Factors 2022.xlsx
+++ b/data/BppTrend/Valid_Import_Files/CAA Valuation Factors 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DDeepika\APAS_Automation\qa_automation\data\BppTrend\Valid_Import_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267B1C7B-4BBA-4515-AAE6-222CB876786E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F14E81-6987-47F5-8422-EBCF3353BBF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,6 +155,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -176,8 +189,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -590,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -615,7 +628,7 @@
         <v>2021</v>
       </c>
       <c r="B2" s="3">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
@@ -623,7 +636,7 @@
         <v>2020</v>
       </c>
       <c r="B3" s="3">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -631,7 +644,7 @@
         <v>2019</v>
       </c>
       <c r="B4" s="3">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -639,7 +652,7 @@
         <v>2018</v>
       </c>
       <c r="B5" s="3">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -647,7 +660,7 @@
         <v>2017</v>
       </c>
       <c r="B6" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
@@ -655,7 +668,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
@@ -663,22 +676,14 @@
         <v>2015</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <v>2014</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
     </row>
@@ -689,10 +694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -701,7 +706,7 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -713,8 +718,8 @@
       <c r="A2" s="5">
         <v>2021</v>
       </c>
-      <c r="B2" s="3">
-        <v>67</v>
+      <c r="B2" s="6">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
@@ -722,7 +727,7 @@
         <v>2020</v>
       </c>
       <c r="B3" s="3">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -730,7 +735,7 @@
         <v>2019</v>
       </c>
       <c r="B4" s="3">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -738,7 +743,7 @@
         <v>2018</v>
       </c>
       <c r="B5" s="3">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -746,7 +751,7 @@
         <v>2017</v>
       </c>
       <c r="B6" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
@@ -754,7 +759,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
@@ -762,22 +767,14 @@
         <v>2015</v>
       </c>
       <c r="B8" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <v>2014</v>
       </c>
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
     </row>
@@ -788,10 +785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -801,7 +798,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -810,19 +807,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>2021</v>
       </c>
-      <c r="B2" s="3">
-        <v>60</v>
+      <c r="B2" s="6">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2020</v>
       </c>
       <c r="B3" s="3">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -830,7 +827,7 @@
         <v>2019</v>
       </c>
       <c r="B4" s="3">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -838,7 +835,7 @@
         <v>2018</v>
       </c>
       <c r="B5" s="3">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
@@ -846,7 +843,7 @@
         <v>2017</v>
       </c>
       <c r="B6" s="3">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -854,7 +851,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="3">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -862,7 +859,7 @@
         <v>2015</v>
       </c>
       <c r="B8" s="3">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -870,7 +867,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -878,24 +875,24 @@
         <v>2013</v>
       </c>
       <c r="B10" s="3">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="5">
         <v>2012</v>
       </c>
       <c r="B11" s="3">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="5">
         <v>2011</v>
       </c>
       <c r="B12" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -903,7 +900,7 @@
         <v>2010</v>
       </c>
       <c r="B13" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
@@ -911,7 +908,7 @@
         <v>2009</v>
       </c>
       <c r="B14" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -919,7 +916,7 @@
         <v>2008</v>
       </c>
       <c r="B15" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -927,22 +924,14 @@
         <v>2007</v>
       </c>
       <c r="B16" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="A17" s="5">
         <v>2006</v>
       </c>
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="B17" s="4">
         <v>7</v>
       </c>
     </row>
@@ -952,9 +941,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,19 +1167,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1212,9 +1200,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>